--- a/pr.xlsx
+++ b/pr.xlsx
@@ -422,13 +422,13 @@
         <v>39567</v>
       </c>
       <c r="B3">
-        <v>0.02357368637613588</v>
+        <v>0.01783681440266473</v>
       </c>
       <c r="C3">
-        <v>0.02249636943766868</v>
+        <v>0.02275749821306081</v>
       </c>
       <c r="D3">
-        <v>-0.002376432286462502</v>
+        <v>-0.003184793178009237</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -436,13 +436,13 @@
         <v>39568</v>
       </c>
       <c r="B4">
-        <v>0.03236278239183179</v>
+        <v>0.01243378712387267</v>
       </c>
       <c r="C4">
-        <v>0.04607579455051305</v>
+        <v>0.05505173653558386</v>
       </c>
       <c r="D4">
-        <v>-0.00744587662966484</v>
+        <v>-0.004418415495261651</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -450,13 +450,13 @@
         <v>39569</v>
       </c>
       <c r="B5">
-        <v>0.00158168417363835</v>
+        <v>0.01423624246590396</v>
       </c>
       <c r="C5">
-        <v>0.01382329445829298</v>
+        <v>0.01017474984775305</v>
       </c>
       <c r="D5">
-        <v>0.0005421927005670501</v>
+        <v>-0.006447594574558593</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -464,13 +464,13 @@
         <v>39570</v>
       </c>
       <c r="B6">
-        <v>0.01270725631416121</v>
+        <v>0.01474591036730641</v>
       </c>
       <c r="C6">
-        <v>0.03513825118307791</v>
+        <v>0.03222034352765888</v>
       </c>
       <c r="D6">
-        <v>0.0002804494484995744</v>
+        <v>-0.004424347893657086</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -478,13 +478,13 @@
         <v>39573</v>
       </c>
       <c r="B7">
-        <v>-0.001588018319079825</v>
+        <v>0.01737052880973435</v>
       </c>
       <c r="C7">
-        <v>0.0239815590261485</v>
+        <v>0.02137370463451002</v>
       </c>
       <c r="D7">
-        <v>0.001814634583397786</v>
+        <v>-0.00742753956735104</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -492,13 +492,13 @@
         <v>39574</v>
       </c>
       <c r="B8">
-        <v>0.01280094648077613</v>
+        <v>0.02169661332813196</v>
       </c>
       <c r="C8">
-        <v>-0.000379183182351174</v>
+        <v>-0.00908618302908709</v>
       </c>
       <c r="D8">
-        <v>-0.002116607295440971</v>
+        <v>-0.005708848465839982</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -506,13 +506,13 @@
         <v>39575</v>
       </c>
       <c r="B9">
-        <v>-0.001113393345976661</v>
+        <v>0.007653423421780079</v>
       </c>
       <c r="C9">
-        <v>0.01770163676519761</v>
+        <v>0.01273716674626111</v>
       </c>
       <c r="D9">
-        <v>0.004996254749174772</v>
+        <v>-0.006094637985377512</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -520,13 +520,13 @@
         <v>39576</v>
       </c>
       <c r="B10">
-        <v>0.02399968508639488</v>
+        <v>0.02157006523352019</v>
       </c>
       <c r="C10">
-        <v>0.02161484158948385</v>
+        <v>0.02050319906942494</v>
       </c>
       <c r="D10">
-        <v>-0.0005584281654330647</v>
+        <v>-0.005998197799269521</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -534,13 +534,13 @@
         <v>39577</v>
       </c>
       <c r="B11">
-        <v>-0.01690101986548629</v>
+        <v>0.01143159279006764</v>
       </c>
       <c r="C11">
-        <v>0.005359810569666598</v>
+        <v>-0.001889049708090973</v>
       </c>
       <c r="D11">
-        <v>0.001555525459340429</v>
+        <v>-0.005567822402482036</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -548,13 +548,13 @@
         <v>39580</v>
       </c>
       <c r="B12">
-        <v>0.03309370654563347</v>
+        <v>0.02152988286444416</v>
       </c>
       <c r="C12">
-        <v>0.01794559848177118</v>
+        <v>0.01802270992045676</v>
       </c>
       <c r="D12">
-        <v>-0.001694774397565416</v>
+        <v>-0.006744974738215486</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -562,13 +562,13 @@
         <v>39581</v>
       </c>
       <c r="B13">
-        <v>0.01189612964899794</v>
+        <v>0.01149340427242146</v>
       </c>
       <c r="C13">
-        <v>0.02586161853353644</v>
+        <v>0.01975764529606227</v>
       </c>
       <c r="D13">
-        <v>0.008062407907585946</v>
+        <v>-0.005235383769678257</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -576,13 +576,13 @@
         <v>39582</v>
       </c>
       <c r="B14">
-        <v>0.03213577672595498</v>
+        <v>0.02225410402026109</v>
       </c>
       <c r="C14">
-        <v>0.0193756596901749</v>
+        <v>0.02002667473949679</v>
       </c>
       <c r="D14">
-        <v>-0.003500649304509525</v>
+        <v>-0.006785951529223746</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -590,13 +590,13 @@
         <v>39583</v>
       </c>
       <c r="B15">
-        <v>0.03506366919053984</v>
+        <v>0.02146734365624047</v>
       </c>
       <c r="C15">
-        <v>0.02870170188798575</v>
+        <v>0.02913699641887759</v>
       </c>
       <c r="D15">
-        <v>-0.002388059396694676</v>
+        <v>-0.004017591134568553</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -604,13 +604,13 @@
         <v>39584</v>
       </c>
       <c r="B16">
-        <v>0.008127104997065059</v>
+        <v>0.03456964863281872</v>
       </c>
       <c r="C16">
-        <v>0.015886981452767</v>
+        <v>0.01856365877256664</v>
       </c>
       <c r="D16">
-        <v>-0.009174814039852753</v>
+        <v>-0.006809394035475059</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -618,13 +618,13 @@
         <v>39587</v>
       </c>
       <c r="B17">
-        <v>-0.007802751182405615</v>
+        <v>5.335667688708551e-06</v>
       </c>
       <c r="C17">
-        <v>0.01364812286110937</v>
+        <v>0.007692193895982354</v>
       </c>
       <c r="D17">
-        <v>0.003202958076292522</v>
+        <v>-0.002358014351886143</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -632,13 +632,13 @@
         <v>39588</v>
       </c>
       <c r="B18">
-        <v>0.02963421105409332</v>
+        <v>0.02255991155982722</v>
       </c>
       <c r="C18">
-        <v>0.01743882015447966</v>
+        <v>0.01928777668703165</v>
       </c>
       <c r="D18">
-        <v>-0.002572067738825005</v>
+        <v>-0.006431898292596609</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -646,13 +646,13 @@
         <v>39589</v>
       </c>
       <c r="B19">
-        <v>0.01891891846316741</v>
+        <v>0.03164570723807784</v>
       </c>
       <c r="C19">
-        <v>-0.003651895354038495</v>
+        <v>-0.01720520463404306</v>
       </c>
       <c r="D19">
-        <v>-0.01474038194354196</v>
+        <v>-0.005305410490638261</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -660,13 +660,13 @@
         <v>39590</v>
       </c>
       <c r="B20">
-        <v>0.05549908854165496</v>
+        <v>0.01766296501030707</v>
       </c>
       <c r="C20">
-        <v>0.002807703809144234</v>
+        <v>-0.005674510980990873</v>
       </c>
       <c r="D20">
-        <v>-0.008015231423107515</v>
+        <v>-0.00676659204093746</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -674,13 +674,13 @@
         <v>39591</v>
       </c>
       <c r="B21">
-        <v>0.02940900461647621</v>
+        <v>0.0209949802164986</v>
       </c>
       <c r="C21">
-        <v>0.02297848547649168</v>
+        <v>0.03401419318642443</v>
       </c>
       <c r="D21">
-        <v>-0.002264568475219456</v>
+        <v>-0.004944509815514148</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -688,13 +688,13 @@
         <v>39594</v>
       </c>
       <c r="B22">
-        <v>0.04190868407417191</v>
+        <v>0.02296327284262519</v>
       </c>
       <c r="C22">
-        <v>0.01415005383739322</v>
+        <v>0.01844911781188994</v>
       </c>
       <c r="D22">
-        <v>-0.007015434904439741</v>
+        <v>-0.006726423811698723</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -702,13 +702,13 @@
         <v>39595</v>
       </c>
       <c r="B23">
-        <v>0.03026378634084735</v>
+        <v>0.02591315674811225</v>
       </c>
       <c r="C23">
-        <v>0.01947213745440446</v>
+        <v>0.03471541335928347</v>
       </c>
       <c r="D23">
-        <v>-0.006558591682963707</v>
+        <v>-0.006272737774078488</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -716,13 +716,13 @@
         <v>39596</v>
       </c>
       <c r="B24">
-        <v>0.06122439879978672</v>
+        <v>0.02385974563763333</v>
       </c>
       <c r="C24">
-        <v>0.01769676368085344</v>
+        <v>0.02435898722587494</v>
       </c>
       <c r="D24">
-        <v>0.002031658843283126</v>
+        <v>-0.005398969098125827</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -730,13 +730,13 @@
         <v>39597</v>
       </c>
       <c r="B25">
-        <v>0.005233787993878868</v>
+        <v>0.01219161218370765</v>
       </c>
       <c r="C25">
-        <v>0.01729533637260902</v>
+        <v>0.0205385049625827</v>
       </c>
       <c r="D25">
-        <v>0.01050395827224365</v>
+        <v>-0.006511271072435332</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -744,13 +744,13 @@
         <v>39598</v>
       </c>
       <c r="B26">
-        <v>0.05355275908645168</v>
+        <v>0.02218956729301272</v>
       </c>
       <c r="C26">
-        <v>0.02167769952709397</v>
+        <v>0.04325539022754461</v>
       </c>
       <c r="D26">
-        <v>0.003112560657661717</v>
+        <v>-0.006215507820355065</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -758,13 +758,13 @@
         <v>39601</v>
       </c>
       <c r="B27">
-        <v>0.004729884266501064</v>
+        <v>0.02145751592062365</v>
       </c>
       <c r="C27">
-        <v>0.01294430698823172</v>
+        <v>0.002666663038975284</v>
       </c>
       <c r="D27">
-        <v>0.007933487366541129</v>
+        <v>-0.006459038045965957</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -772,13 +772,13 @@
         <v>39602</v>
       </c>
       <c r="B28">
-        <v>0.01603024292393941</v>
+        <v>0.007625198514442731</v>
       </c>
       <c r="C28">
-        <v>0.01330022849204701</v>
+        <v>0.008110954237247106</v>
       </c>
       <c r="D28">
-        <v>0.007322635972822991</v>
+        <v>-0.003621100589405233</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -786,13 +786,13 @@
         <v>39603</v>
       </c>
       <c r="B29">
-        <v>0.04479733288650468</v>
+        <v>0.02215183774240568</v>
       </c>
       <c r="C29">
-        <v>0.01563233367010727</v>
+        <v>0.02681236431719246</v>
       </c>
       <c r="D29">
-        <v>-0.001296866342855454</v>
+        <v>-0.007095180284993111</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -800,13 +800,13 @@
         <v>39604</v>
       </c>
       <c r="B30">
-        <v>0.03266262886461162</v>
+        <v>0.01806836768240964</v>
       </c>
       <c r="C30">
-        <v>0.01835558931285145</v>
+        <v>0.02536001981972758</v>
       </c>
       <c r="D30">
-        <v>0.006066706941560001</v>
+        <v>-0.002914507856079378</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -814,13 +814,13 @@
         <v>39605</v>
       </c>
       <c r="B31">
-        <v>-0.01122235175753345</v>
+        <v>0.02155129052274485</v>
       </c>
       <c r="C31">
-        <v>0.01393369315703397</v>
+        <v>0.009128652583618009</v>
       </c>
       <c r="D31">
-        <v>0.008243192194846705</v>
+        <v>-0.007080076396498419</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -828,13 +828,13 @@
         <v>39608</v>
       </c>
       <c r="B32">
-        <v>0.02739031797740605</v>
+        <v>0.01922566007792997</v>
       </c>
       <c r="C32">
-        <v>0.009512688995194227</v>
+        <v>-0.01674436824850285</v>
       </c>
       <c r="D32">
-        <v>0.005665529719425805</v>
+        <v>-0.004814827668259573</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -842,13 +842,13 @@
         <v>39609</v>
       </c>
       <c r="B33">
-        <v>0.03842188725624443</v>
+        <v>0.02134500165265181</v>
       </c>
       <c r="C33">
-        <v>0.01253927744149236</v>
+        <v>0.005368315367215194</v>
       </c>
       <c r="D33">
-        <v>0.003624401935279483</v>
+        <v>-0.00534954201505507</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -856,13 +856,13 @@
         <v>39610</v>
       </c>
       <c r="B34">
-        <v>0.07564937763505866</v>
+        <v>0.0144039074183527</v>
       </c>
       <c r="C34">
-        <v>0.01823718785080873</v>
+        <v>0.05644992141917332</v>
       </c>
       <c r="D34">
-        <v>-0.001336733562364744</v>
+        <v>-0.006979150407967715</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -870,13 +870,13 @@
         <v>39611</v>
       </c>
       <c r="B35">
-        <v>0.02397451522748793</v>
+        <v>0.02802159142610286</v>
       </c>
       <c r="C35">
-        <v>0.01377357531775472</v>
+        <v>0.02164712525875163</v>
       </c>
       <c r="D35">
-        <v>-0.006982258990135107</v>
+        <v>-0.004508854562318922</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -884,13 +884,13 @@
         <v>39612</v>
       </c>
       <c r="B36">
-        <v>0.04797468171553616</v>
+        <v>0.02176533507025658</v>
       </c>
       <c r="C36">
-        <v>0.01609897732172684</v>
+        <v>0.04371801218060192</v>
       </c>
       <c r="D36">
-        <v>-0.0007790756554584416</v>
+        <v>-0.006508466522878869</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -898,13 +898,13 @@
         <v>39615</v>
       </c>
       <c r="B37">
-        <v>0.001386848019180896</v>
+        <v>0.005224629235538406</v>
       </c>
       <c r="C37">
-        <v>0.01623628864672012</v>
+        <v>0.0205897816216161</v>
       </c>
       <c r="D37">
-        <v>0.01058680201540988</v>
+        <v>-0.002829016871110426</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -912,13 +912,13 @@
         <v>39616</v>
       </c>
       <c r="B38">
-        <v>0.009946555023699104</v>
+        <v>0.01711990344575237</v>
       </c>
       <c r="C38">
-        <v>0.01480474931198835</v>
+        <v>0.01994545429961388</v>
       </c>
       <c r="D38">
-        <v>0.00784570287574857</v>
+        <v>-0.0058144928093178</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -926,13 +926,13 @@
         <v>39617</v>
       </c>
       <c r="B39">
-        <v>0.01931147001249647</v>
+        <v>0.01858921364688124</v>
       </c>
       <c r="C39">
-        <v>0.01397973432804036</v>
+        <v>0.01378422819583257</v>
       </c>
       <c r="D39">
-        <v>0.007661344074653288</v>
+        <v>-0.004714079970605713</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -940,13 +940,13 @@
         <v>39618</v>
       </c>
       <c r="B40">
-        <v>0.0268421180499758</v>
+        <v>0.01777321026078794</v>
       </c>
       <c r="C40">
-        <v>0.01304890349740822</v>
+        <v>0.005666575330766172</v>
       </c>
       <c r="D40">
-        <v>0.008485497567570794</v>
+        <v>-0.00428636325944904</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -954,13 +954,13 @@
         <v>39619</v>
       </c>
       <c r="B41">
-        <v>0.06653469751814098</v>
+        <v>0.0169356577319618</v>
       </c>
       <c r="C41">
-        <v>0.01359090265235735</v>
+        <v>0.02105786725197562</v>
       </c>
       <c r="D41">
-        <v>0.001154136902876808</v>
+        <v>-0.006680202596452602</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -968,13 +968,13 @@
         <v>39622</v>
       </c>
       <c r="B42">
-        <v>0.05896343087664271</v>
+        <v>0.01870020270797082</v>
       </c>
       <c r="C42">
-        <v>0.01125162195173188</v>
+        <v>-0.00815807290186156</v>
       </c>
       <c r="D42">
-        <v>0.002238526228679088</v>
+        <v>-0.006512346171413953</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -982,13 +982,13 @@
         <v>39623</v>
       </c>
       <c r="B43">
-        <v>-0.0004674088828635035</v>
+        <v>0.004638347127957443</v>
       </c>
       <c r="C43">
-        <v>0.01288104675176887</v>
+        <v>0.005578030930009253</v>
       </c>
       <c r="D43">
-        <v>0.01219347453489668</v>
+        <v>-0.003631671487161339</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -996,13 +996,13 @@
         <v>39624</v>
       </c>
       <c r="B44">
-        <v>0.06713402801660107</v>
+        <v>0.01670759457728279</v>
       </c>
       <c r="C44">
-        <v>0.01283773919583831</v>
+        <v>0.008755250406372803</v>
       </c>
       <c r="D44">
-        <v>0.003013227196266567</v>
+        <v>-0.00718237168318324</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1010,13 +1010,13 @@
         <v>39625</v>
       </c>
       <c r="B45">
-        <v>0.01399524374100338</v>
+        <v>0.01174734027454152</v>
       </c>
       <c r="C45">
-        <v>0.01579235440730622</v>
+        <v>0.02289714790817492</v>
       </c>
       <c r="D45">
-        <v>0.01206068348161338</v>
+        <v>-0.003689715750055331</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1024,13 +1024,13 @@
         <v>39626</v>
       </c>
       <c r="B46">
-        <v>0.02237909515794634</v>
+        <v>0.02778859060224649</v>
       </c>
       <c r="C46">
-        <v>0.009632742199438696</v>
+        <v>-0.07237032011426169</v>
       </c>
       <c r="D46">
-        <v>0.003256345622411958</v>
+        <v>-0.006723419900523793</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1038,13 +1038,13 @@
         <v>39629</v>
       </c>
       <c r="B47">
-        <v>-0.001899089926150788</v>
+        <v>0.002054840704651449</v>
       </c>
       <c r="C47">
-        <v>0.01162277231994183</v>
+        <v>-0.0005368026133168672</v>
       </c>
       <c r="D47">
-        <v>0.01265247544473148</v>
+        <v>-0.003572245300792916</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1052,13 +1052,13 @@
         <v>39630</v>
       </c>
       <c r="B48">
-        <v>0.006642110890525792</v>
+        <v>0.0253307180279472</v>
       </c>
       <c r="C48">
-        <v>0.01326405944863035</v>
+        <v>0.0167018246294981</v>
       </c>
       <c r="D48">
-        <v>0.008857661007080127</v>
+        <v>-0.007381372725567304</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1066,13 +1066,13 @@
         <v>39631</v>
       </c>
       <c r="B49">
-        <v>0.02282863967808473</v>
+        <v>0.01691907298600462</v>
       </c>
       <c r="C49">
-        <v>0.01360858605210819</v>
+        <v>0.01561351214595454</v>
       </c>
       <c r="D49">
-        <v>0.01079772617336072</v>
+        <v>-0.003503685541555595</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1080,13 +1080,13 @@
         <v>39632</v>
       </c>
       <c r="B50">
-        <v>0.09143294991695923</v>
+        <v>0.01190063733962973</v>
       </c>
       <c r="C50">
-        <v>0.0112358407429316</v>
+        <v>-0.02406550469347482</v>
       </c>
       <c r="D50">
-        <v>0.005930427660342698</v>
+        <v>-0.008590528650260902</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1094,13 +1094,13 @@
         <v>39633</v>
       </c>
       <c r="B51">
-        <v>0.02009640551859761</v>
+        <v>0.01690544609115748</v>
       </c>
       <c r="C51">
-        <v>0.01417467612616562</v>
+        <v>0.02420273795435447</v>
       </c>
       <c r="D51">
-        <v>0.01099859237662529</v>
+        <v>-0.005335132597632941</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1108,13 +1108,13 @@
         <v>39636</v>
       </c>
       <c r="B52">
-        <v>0.0516094945925255</v>
+        <v>0.01990825576829915</v>
       </c>
       <c r="C52">
-        <v>0.01314826646637108</v>
+        <v>0.02593827954877059</v>
       </c>
       <c r="D52">
-        <v>0.004070954579483315</v>
+        <v>-0.006045145021353964</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1122,13 +1122,13 @@
         <v>39637</v>
       </c>
       <c r="B53">
-        <v>0.06067858347740865</v>
+        <v>0.03013426334641139</v>
       </c>
       <c r="C53">
-        <v>0.01264622147525887</v>
+        <v>0.01054890803575196</v>
       </c>
       <c r="D53">
-        <v>0.008278717388537023</v>
+        <v>-0.005292972629860775</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1136,13 +1136,13 @@
         <v>39638</v>
       </c>
       <c r="B54">
-        <v>0.0148548124779379</v>
+        <v>0.02072706302737631</v>
       </c>
       <c r="C54">
-        <v>0.01434336923764339</v>
+        <v>0.04790388222466662</v>
       </c>
       <c r="D54">
-        <v>0.0116639408561997</v>
+        <v>-0.005755141668379808</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1150,13 +1150,13 @@
         <v>39639</v>
       </c>
       <c r="B55">
-        <v>0.04419600073268375</v>
+        <v>0.02105550516375709</v>
       </c>
       <c r="C55">
-        <v>0.01243332741291968</v>
+        <v>-0.001214667842905689</v>
       </c>
       <c r="D55">
-        <v>0.008597025569733975</v>
+        <v>-0.007666807836821533</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1164,13 +1164,13 @@
         <v>39640</v>
       </c>
       <c r="B56">
-        <v>-0.00556185220960928</v>
+        <v>0.005186875134495249</v>
       </c>
       <c r="C56">
-        <v>0.01230613349884252</v>
+        <v>0.001923367928970063</v>
       </c>
       <c r="D56">
-        <v>0.01199070949670408</v>
+        <v>-0.004514607351494119</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1178,13 +1178,13 @@
         <v>39643</v>
       </c>
       <c r="B57">
-        <v>0.01026620590562165</v>
+        <v>0.01565414181779877</v>
       </c>
       <c r="C57">
-        <v>0.01168383522853548</v>
+        <v>-0.02059909759117512</v>
       </c>
       <c r="D57">
-        <v>0.0107769995306848</v>
+        <v>-0.004988986043500785</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1192,13 +1192,13 @@
         <v>39644</v>
       </c>
       <c r="B58">
-        <v>0.003478863957316444</v>
+        <v>0.01140715111245445</v>
       </c>
       <c r="C58">
-        <v>0.01195504144094125</v>
+        <v>-0.006553446476688275</v>
       </c>
       <c r="D58">
-        <v>0.01154535482250083</v>
+        <v>-0.003423576979376887</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1206,13 +1206,13 @@
         <v>39645</v>
       </c>
       <c r="B59">
-        <v>0.07386150261464729</v>
+        <v>0.01164679441335442</v>
       </c>
       <c r="C59">
-        <v>0.01229756751015992</v>
+        <v>0.01082301055615636</v>
       </c>
       <c r="D59">
-        <v>0.005209840107198402</v>
+        <v>-0.007439666466466471</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1220,13 +1220,13 @@
         <v>39646</v>
       </c>
       <c r="B60">
-        <v>0.007743517644384933</v>
+        <v>0.01507693470995599</v>
       </c>
       <c r="C60">
-        <v>0.01416756295948932</v>
+        <v>0.04632505657819942</v>
       </c>
       <c r="D60">
-        <v>0.01188044363060145</v>
+        <v>-0.005620745898022261</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1234,13 +1234,13 @@
         <v>39647</v>
       </c>
       <c r="B61">
-        <v>0.03093022557762038</v>
+        <v>0.02138342998464018</v>
       </c>
       <c r="C61">
-        <v>0.01363854425170178</v>
+        <v>0.04193620275470764</v>
       </c>
       <c r="D61">
-        <v>0.008792629064036063</v>
+        <v>-0.004501419320615153</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -1248,13 +1248,13 @@
         <v>39650</v>
       </c>
       <c r="B62">
-        <v>0.005727503673121046</v>
+        <v>0.02153059302449338</v>
       </c>
       <c r="C62">
-        <v>0.01316172917420396</v>
+        <v>0.03582010347667115</v>
       </c>
       <c r="D62">
-        <v>0.01196195936842697</v>
+        <v>-0.006255647731894515</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -1262,13 +1262,13 @@
         <v>39651</v>
       </c>
       <c r="B63">
-        <v>-0.01268646753347684</v>
+        <v>0.006341190330310787</v>
       </c>
       <c r="C63">
-        <v>0.01253173297425262</v>
+        <v>0.008758347387427957</v>
       </c>
       <c r="D63">
-        <v>0.01039965855632494</v>
+        <v>-0.005257879845557653</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -1276,13 +1276,13 @@
         <v>39652</v>
       </c>
       <c r="B64">
-        <v>0.03028241168062254</v>
+        <v>0.02157306706171591</v>
       </c>
       <c r="C64">
-        <v>0.01317033504844993</v>
+        <v>0.05440364512504849</v>
       </c>
       <c r="D64">
-        <v>0.009512719782525089</v>
+        <v>-0.007241189049369912</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -1290,13 +1290,13 @@
         <v>39653</v>
       </c>
       <c r="B65">
-        <v>0.04517370427518901</v>
+        <v>0.02623368358166084</v>
       </c>
       <c r="C65">
-        <v>0.01372315854271018</v>
+        <v>0.05910661915006704</v>
       </c>
       <c r="D65">
-        <v>0.00547539518150481</v>
+        <v>-0.002891339586867558</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -1304,13 +1304,13 @@
         <v>39654</v>
       </c>
       <c r="B66">
-        <v>0.04877787232355707</v>
+        <v>0.01672254805087357</v>
       </c>
       <c r="C66">
-        <v>0.01205405834734688</v>
+        <v>-0.007312820649347563</v>
       </c>
       <c r="D66">
-        <v>0.004033103759609554</v>
+        <v>-0.006797306419696831</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -1318,13 +1318,13 @@
         <v>39657</v>
       </c>
       <c r="B67">
-        <v>-0.01593305510631312</v>
+        <v>0.007183882398734085</v>
       </c>
       <c r="C67">
-        <v>0.01257287997141689</v>
+        <v>0.01135211702018576</v>
       </c>
       <c r="D67">
-        <v>0.01234896598917132</v>
+        <v>-0.003495032184096311</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -1332,13 +1332,13 @@
         <v>39658</v>
       </c>
       <c r="B68">
-        <v>0.01188409368644983</v>
+        <v>0.02116568280929131</v>
       </c>
       <c r="C68">
-        <v>0.01228900212139113</v>
+        <v>-0.005560580010081197</v>
       </c>
       <c r="D68">
-        <v>0.009087527490068924</v>
+        <v>-0.005862413817668673</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -1346,13 +1346,13 @@
         <v>39659</v>
       </c>
       <c r="B69">
-        <v>0.01428570601278833</v>
+        <v>0.02093802295874276</v>
       </c>
       <c r="C69">
-        <v>0.01302385261160094</v>
+        <v>0.05178011444037802</v>
       </c>
       <c r="D69">
-        <v>0.009896487720863692</v>
+        <v>-0.007510314964385514</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -1360,13 +1360,13 @@
         <v>39660</v>
       </c>
       <c r="B70">
-        <v>-0.02184663267887151</v>
+        <v>0.01764324479089993</v>
       </c>
       <c r="C70">
-        <v>0.0126793283965566</v>
+        <v>0.03164474389870996</v>
       </c>
       <c r="D70">
-        <v>0.008356126435935413</v>
+        <v>-0.005708046358429487</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -1374,13 +1374,13 @@
         <v>39661</v>
       </c>
       <c r="B71">
-        <v>0.02668194024901629</v>
+        <v>0.02293819796410673</v>
       </c>
       <c r="C71">
-        <v>0.01260904950324445</v>
+        <v>0.04693543194150009</v>
       </c>
       <c r="D71">
-        <v>0.003428870119197535</v>
+        <v>-0.006275262412881805</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -1388,13 +1388,13 @@
         <v>39664</v>
       </c>
       <c r="B72">
-        <v>0.02521746007505422</v>
+        <v>0.02200895358295223</v>
       </c>
       <c r="C72">
-        <v>0.01228564168321858</v>
+        <v>0.0117835984608642</v>
       </c>
       <c r="D72">
-        <v>0.008831098506377526</v>
+        <v>-0.01065395615081445</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -1402,13 +1402,13 @@
         <v>39665</v>
       </c>
       <c r="B73">
-        <v>0.003405207820337574</v>
+        <v>0.01557305002257711</v>
       </c>
       <c r="C73">
-        <v>0.01255051603422994</v>
+        <v>0.01431076966991494</v>
       </c>
       <c r="D73">
-        <v>0.01096520323898722</v>
+        <v>-0.002914246470075452</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -1416,13 +1416,13 @@
         <v>39666</v>
       </c>
       <c r="B74">
-        <v>0.06251243176062189</v>
+        <v>0.008799973609100665</v>
       </c>
       <c r="C74">
-        <v>0.01294646735236849</v>
+        <v>0.107913390888944</v>
       </c>
       <c r="D74">
-        <v>0.008833656917295049</v>
+        <v>-0.01082445275046217</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -1430,13 +1430,13 @@
         <v>39667</v>
       </c>
       <c r="B75">
-        <v>-0.02084812732800231</v>
+        <v>0.03510162036544451</v>
       </c>
       <c r="C75">
-        <v>0.01247789919064156</v>
+        <v>0.02005360546023827</v>
       </c>
       <c r="D75">
-        <v>0.009793273342279578</v>
+        <v>-0.007177975918878512</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -1444,13 +1444,13 @@
         <v>39668</v>
       </c>
       <c r="B76">
-        <v>0.009233885057080376</v>
+        <v>0.01852378030661169</v>
       </c>
       <c r="C76">
-        <v>0.01239644090544377</v>
+        <v>0.006292831032662986</v>
       </c>
       <c r="D76">
-        <v>0.01001584788808233</v>
+        <v>-0.005207195558319675</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -1458,13 +1458,13 @@
         <v>39671</v>
       </c>
       <c r="B77">
-        <v>0.03162425305214132</v>
+        <v>0.02028180508899423</v>
       </c>
       <c r="C77">
-        <v>0.01284118494432681</v>
+        <v>0.09217426399119752</v>
       </c>
       <c r="D77">
-        <v>0.007798914221839115</v>
+        <v>-0.009469363019923526</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -1472,13 +1472,13 @@
         <v>39672</v>
       </c>
       <c r="B78">
-        <v>0.03466298600868339</v>
+        <v>0.02736750951222595</v>
       </c>
       <c r="C78">
-        <v>0.01268266830317071</v>
+        <v>0.03174743688039033</v>
       </c>
       <c r="D78">
-        <v>0.007214527817980315</v>
+        <v>-0.005652566493323376</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -1486,13 +1486,13 @@
         <v>39673</v>
       </c>
       <c r="B79">
-        <v>-0.002161223776462163</v>
+        <v>0.0262759788707373</v>
       </c>
       <c r="C79">
-        <v>0.01237146770472147</v>
+        <v>-0.006307227585125332</v>
       </c>
       <c r="D79">
-        <v>0.00940957173576165</v>
+        <v>-0.007672005693291686</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -1500,13 +1500,13 @@
         <v>39674</v>
       </c>
       <c r="B80">
-        <v>-0.02377199706211239</v>
+        <v>0.04143971354783482</v>
       </c>
       <c r="C80">
-        <v>0.01204213911261647</v>
+        <v>-0.04030783469953039</v>
       </c>
       <c r="D80">
-        <v>9.054330796435996e-05</v>
+        <v>-0.005159242849733093</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -1514,13 +1514,13 @@
         <v>39675</v>
       </c>
       <c r="B81">
-        <v>0.008622280104715285</v>
+        <v>0.0215198490820477</v>
       </c>
       <c r="C81">
-        <v>0.01276585230608258</v>
+        <v>0.06063508608853302</v>
       </c>
       <c r="D81">
-        <v>0.009904530616621783</v>
+        <v>-0.008097629041267471</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -1528,13 +1528,13 @@
         <v>39678</v>
       </c>
       <c r="B82">
-        <v>0.04206122062725338</v>
+        <v>0.01501739841060305</v>
       </c>
       <c r="C82">
-        <v>0.01254095478087811</v>
+        <v>0.0617488600699109</v>
       </c>
       <c r="D82">
-        <v>0.001083104217506542</v>
+        <v>-0.005954279647587128</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -1542,13 +1542,13 @@
         <v>39679</v>
       </c>
       <c r="B83">
-        <v>-0.0161068462479266</v>
+        <v>0.0206822752045879</v>
       </c>
       <c r="C83">
-        <v>0.01238264276621615</v>
+        <v>-0.004745165006057523</v>
       </c>
       <c r="D83">
-        <v>0.01059697480072284</v>
+        <v>-0.007404952597144679</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -1556,13 +1556,13 @@
         <v>39680</v>
       </c>
       <c r="B84">
-        <v>0.006064892687517669</v>
+        <v>0.02148435096568992</v>
       </c>
       <c r="C84">
-        <v>0.01219806751177028</v>
+        <v>-0.03286376454878268</v>
       </c>
       <c r="D84">
-        <v>0.005528848556988722</v>
+        <v>-0.005204212421262834</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -1570,13 +1570,13 @@
         <v>39681</v>
       </c>
       <c r="B85">
-        <v>-0.01766343757826797</v>
+        <v>0.02756522419127967</v>
       </c>
       <c r="C85">
-        <v>0.01244838310236166</v>
+        <v>0.02541508553421033</v>
       </c>
       <c r="D85">
-        <v>0.00863876318415599</v>
+        <v>-0.009244529091976234</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -1584,13 +1584,13 @@
         <v>39682</v>
       </c>
       <c r="B86">
-        <v>-0.01382013265144537</v>
+        <v>0.03494496805874951</v>
       </c>
       <c r="C86">
-        <v>0.01212229797473829</v>
+        <v>-0.02584147181805709</v>
       </c>
       <c r="D86">
-        <v>0.002331928594142664</v>
+        <v>-0.006545859491669755</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -1598,13 +1598,13 @@
         <v>39685</v>
       </c>
       <c r="B87">
-        <v>0.01823498632876093</v>
+        <v>0.01991716878089709</v>
       </c>
       <c r="C87">
-        <v>0.01259601614454866</v>
+        <v>0.05533412519092306</v>
       </c>
       <c r="D87">
-        <v>0.007135548471567943</v>
+        <v>-0.007554887251533355</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -1612,13 +1612,13 @@
         <v>39686</v>
       </c>
       <c r="B88">
-        <v>0.02225921614107827</v>
+        <v>0.02191649509382848</v>
       </c>
       <c r="C88">
-        <v>0.01229171748542507</v>
+        <v>0.003508072991453054</v>
       </c>
       <c r="D88">
-        <v>0.005002943893678359</v>
+        <v>-0.005718855258713052</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -1626,13 +1626,13 @@
         <v>39687</v>
       </c>
       <c r="B89">
-        <v>0.01128559711131953</v>
+        <v>0.02620466577025593</v>
       </c>
       <c r="C89">
-        <v>0.0122013329665921</v>
+        <v>-0.008804946478470285</v>
       </c>
       <c r="D89">
-        <v>0.009878606312625854</v>
+        <v>-0.01109177536487451</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -1640,13 +1640,13 @@
         <v>39688</v>
       </c>
       <c r="B90">
-        <v>-0.008749483328633441</v>
+        <v>0.005081305625503544</v>
       </c>
       <c r="C90">
-        <v>0.01240415601525788</v>
+        <v>0.01802123188816885</v>
       </c>
       <c r="D90">
-        <v>0.007948881762420604</v>
+        <v>-0.006350274163835788</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -1654,13 +1654,13 @@
         <v>39689</v>
       </c>
       <c r="B91">
-        <v>-0.004985200161098246</v>
+        <v>0.03065927625286539</v>
       </c>
       <c r="C91">
-        <v>0.01256193391134123</v>
+        <v>0.07209381388819018</v>
       </c>
       <c r="D91">
-        <v>0.0025322196183886</v>
+        <v>-0.006589820340383313</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -1668,13 +1668,13 @@
         <v>39693</v>
       </c>
       <c r="B92">
-        <v>-0.005347410527081381</v>
+        <v>0.01704170860234991</v>
       </c>
       <c r="C92">
-        <v>0.01248784215427543</v>
+        <v>0.02481862921181584</v>
       </c>
       <c r="D92">
-        <v>0.007152629884213439</v>
+        <v>-0.004392631866298276</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -1682,13 +1682,13 @@
         <v>39694</v>
       </c>
       <c r="B93">
-        <v>0.05917235622740712</v>
+        <v>0.004859559773430215</v>
       </c>
       <c r="C93">
-        <v>0.01240472567171369</v>
+        <v>0.04595508962386131</v>
       </c>
       <c r="D93">
-        <v>0.003153287376577725</v>
+        <v>-0.007773823542933097</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -1696,13 +1696,13 @@
         <v>39695</v>
       </c>
       <c r="B94">
-        <v>0.0329742558394529</v>
+        <v>0.03384433794327096</v>
       </c>
       <c r="C94">
-        <v>0.01247142833906326</v>
+        <v>0.02108016591801559</v>
       </c>
       <c r="D94">
-        <v>0.005295211003497153</v>
+        <v>-0.003152521800324687</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -1710,13 +1710,13 @@
         <v>39696</v>
       </c>
       <c r="B95">
-        <v>0.04362390722158224</v>
+        <v>0.01185739564233904</v>
       </c>
       <c r="C95">
-        <v>0.01227581861764927</v>
+        <v>0.005156641207034797</v>
       </c>
       <c r="D95">
-        <v>0.002617692488335085</v>
+        <v>-0.007777136653288724</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -1724,13 +1724,13 @@
         <v>39699</v>
       </c>
       <c r="B96">
-        <v>-0.003071284961792339</v>
+        <v>0.01347185559540882</v>
       </c>
       <c r="C96">
-        <v>0.01239530970609758</v>
+        <v>0.008753445667682462</v>
       </c>
       <c r="D96">
-        <v>0.007890096865743263</v>
+        <v>-0.003043585385729564</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -1738,13 +1738,13 @@
         <v>39700</v>
       </c>
       <c r="B97">
-        <v>0.03553190707852153</v>
+        <v>0.01556764298004687</v>
       </c>
       <c r="C97">
-        <v>0.01243086422448085</v>
+        <v>0.06416795347349614</v>
       </c>
       <c r="D97">
-        <v>0.006670817287754244</v>
+        <v>-0.009105340921868882</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -1752,13 +1752,13 @@
         <v>39701</v>
       </c>
       <c r="B98">
-        <v>0.06424242270782725</v>
+        <v>-0.002419735805796533</v>
       </c>
       <c r="C98">
-        <v>0.01241594991013445</v>
+        <v>0.06384473624832168</v>
       </c>
       <c r="D98">
-        <v>0.009000595992665301</v>
+        <v>-0.01116511709986592</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -1766,13 +1766,13 @@
         <v>39702</v>
       </c>
       <c r="B99">
-        <v>-0.01735751061087203</v>
+        <v>0.04179994266113726</v>
       </c>
       <c r="C99">
-        <v>0.01234587502719531</v>
+        <v>0.0122455875924765</v>
       </c>
       <c r="D99">
-        <v>0.007946652461168586</v>
+        <v>-0.01012141148479734</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -1780,13 +1780,13 @@
         <v>39703</v>
       </c>
       <c r="B100">
-        <v>-0.00409600616428284</v>
+        <v>0.01402273779148056</v>
       </c>
       <c r="C100">
-        <v>0.01250431425466556</v>
+        <v>0.02753569187393715</v>
       </c>
       <c r="D100">
-        <v>0.006688224626696192</v>
+        <v>-0.003386552960316232</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -1794,13 +1794,13 @@
         <v>39706</v>
       </c>
       <c r="B101">
-        <v>-0.01708587777403751</v>
+        <v>0.04278165649446446</v>
       </c>
       <c r="C101">
-        <v>0.01218578910441391</v>
+        <v>-0.05235370748186614</v>
       </c>
       <c r="D101">
-        <v>-0.001965845995824602</v>
+        <v>-0.005257810946544931</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -1808,13 +1808,13 @@
         <v>39707</v>
       </c>
       <c r="B102">
-        <v>0.04737673476543933</v>
+        <v>0.003251276585657895</v>
       </c>
       <c r="C102">
-        <v>0.01224101023172414</v>
+        <v>-0.01128896187197219</v>
       </c>
       <c r="D102">
-        <v>0.006110890108899121</v>
+        <v>-0.00962110294873489</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -1822,13 +1822,13 @@
         <v>39708</v>
       </c>
       <c r="B103">
-        <v>0.007220428810748258</v>
+        <v>0.02229517339136289</v>
       </c>
       <c r="C103">
-        <v>0.01226428583770591</v>
+        <v>-0.009506965691033294</v>
       </c>
       <c r="D103">
-        <v>0.002758033198606221</v>
+        <v>-0.005372775959877762</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -1836,13 +1836,13 @@
         <v>39709</v>
       </c>
       <c r="B104">
-        <v>0.02603227614610322</v>
+        <v>0.01592245218582548</v>
       </c>
       <c r="C104">
-        <v>0.01182904743896242</v>
+        <v>-0.2248099468268019</v>
       </c>
       <c r="D104">
-        <v>0.01562904055315053</v>
+        <v>-0.0162146646063993</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -1850,13 +1850,13 @@
         <v>39710</v>
       </c>
       <c r="B105">
-        <v>-0.004596423739582708</v>
+        <v>0.02893035407892163</v>
       </c>
       <c r="C105">
-        <v>0.01242036363007602</v>
+        <v>0.05092439376646157</v>
       </c>
       <c r="D105">
-        <v>0.005904074412401893</v>
+        <v>-0.009445863081289118</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -1864,13 +1864,13 @@
         <v>39713</v>
       </c>
       <c r="B106">
-        <v>-0.04819546863605113</v>
+        <v>0.05749693337869539</v>
       </c>
       <c r="C106">
-        <v>0.01237850324993668</v>
+        <v>0.06780061359163894</v>
       </c>
       <c r="D106">
-        <v>0.003595419422553782</v>
+        <v>-0.008451403188966854</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -1878,13 +1878,13 @@
         <v>39714</v>
       </c>
       <c r="B107">
-        <v>0.01692426116057703</v>
+        <v>0.02125081895585453</v>
       </c>
       <c r="C107">
-        <v>0.01210547717854954</v>
+        <v>-0.09293737991134737</v>
       </c>
       <c r="D107">
-        <v>-0.002450633926020621</v>
+        <v>-0.004215346037040706</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -1892,13 +1892,13 @@
         <v>39715</v>
       </c>
       <c r="B108">
-        <v>0.01708644012862134</v>
+        <v>0.01844894310118785</v>
       </c>
       <c r="C108">
-        <v>0.0123069643003507</v>
+        <v>0.02074254723957423</v>
       </c>
       <c r="D108">
-        <v>0.006011783316194624</v>
+        <v>-0.009448187734987162</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -1906,13 +1906,13 @@
         <v>39716</v>
       </c>
       <c r="B109">
-        <v>-0.006612420359086719</v>
+        <v>0.01534785350601674</v>
       </c>
       <c r="C109">
-        <v>0.01234124099538265</v>
+        <v>0.008018403689586668</v>
       </c>
       <c r="D109">
-        <v>0.005491312299017012</v>
+        <v>-0.003206041345603387</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -1920,13 +1920,13 @@
         <v>39717</v>
       </c>
       <c r="B110">
-        <v>0.003265404953538188</v>
+        <v>0.02195717184199922</v>
       </c>
       <c r="C110">
-        <v>0.01238525009862742</v>
+        <v>0.0584685658607902</v>
       </c>
       <c r="D110">
-        <v>0.006071497272000462</v>
+        <v>-0.008417282654118908</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -1934,13 +1934,13 @@
         <v>39720</v>
       </c>
       <c r="B111">
-        <v>0.03432529542478714</v>
+        <v>0.009587881236940149</v>
       </c>
       <c r="C111">
-        <v>0.01227798337768687</v>
+        <v>0.01655155945878229</v>
       </c>
       <c r="D111">
-        <v>0.001106411727781249</v>
+        <v>-0.006966598262752935</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -1948,13 +1948,13 @@
         <v>39721</v>
       </c>
       <c r="B112">
-        <v>0.0679296086640948</v>
+        <v>-0.01161308967575209</v>
       </c>
       <c r="C112">
-        <v>0.01216371993201616</v>
+        <v>-0.07182049096570607</v>
       </c>
       <c r="D112">
-        <v>-0.0005101008602901797</v>
+        <v>-0.00547024556626015</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -1962,13 +1962,13 @@
         <v>39722</v>
       </c>
       <c r="B113">
-        <v>-0.01928352973897698</v>
+        <v>0.04244862205414759</v>
       </c>
       <c r="C113">
-        <v>0.01235229717693632</v>
+        <v>0.09229163665087028</v>
       </c>
       <c r="D113">
-        <v>0.009319755750500468</v>
+        <v>-0.01306006377283623</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -1976,13 +1976,13 @@
         <v>39723</v>
       </c>
       <c r="B114">
-        <v>0.002140863283210545</v>
+        <v>0.02309569235525957</v>
       </c>
       <c r="C114">
-        <v>0.01231341970412946</v>
+        <v>0.03662348064697078</v>
       </c>
       <c r="D114">
-        <v>0.0002052377519816359</v>
+        <v>-0.005812769641228493</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -1990,13 +1990,13 @@
         <v>39724</v>
       </c>
       <c r="B115">
-        <v>0.07639591760390162</v>
+        <v>-0.01855147628889264</v>
       </c>
       <c r="C115">
-        <v>0.01232566535387629</v>
+        <v>0.08284171205598065</v>
       </c>
       <c r="D115">
-        <v>0.004314391708323576</v>
+        <v>-0.009261092275089431</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -2004,13 +2004,13 @@
         <v>39727</v>
       </c>
       <c r="B116">
-        <v>0.006521074546731753</v>
+        <v>0.02432401958978224</v>
       </c>
       <c r="C116">
-        <v>0.01222580201483681</v>
+        <v>-0.01754567158083916</v>
       </c>
       <c r="D116">
-        <v>0.0006928994577225212</v>
+        <v>-0.006758010746598857</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -2018,13 +2018,13 @@
         <v>39728</v>
       </c>
       <c r="B117">
-        <v>0.05272929482228697</v>
+        <v>-0.003989122446609764</v>
       </c>
       <c r="C117">
-        <v>0.01222375898524222</v>
+        <v>-0.01710717747598423</v>
       </c>
       <c r="D117">
-        <v>0.003877346395286965</v>
+        <v>-0.0089851378490311</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -2032,13 +2032,13 @@
         <v>39729</v>
       </c>
       <c r="B118">
-        <v>0.04122838061785873</v>
+        <v>0.05304990069009155</v>
       </c>
       <c r="C118">
-        <v>0.01217702707708469</v>
+        <v>-0.0188587129312246</v>
       </c>
       <c r="D118">
-        <v>0.0009653138658345362</v>
+        <v>-0.001165886213688597</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -2046,13 +2046,13 @@
         <v>39730</v>
       </c>
       <c r="B119">
-        <v>-0.02590274743736333</v>
+        <v>0.04449058391384728</v>
       </c>
       <c r="C119">
-        <v>0.0121562888321884</v>
+        <v>-0.104969531323686</v>
       </c>
       <c r="D119">
-        <v>0.001286263778782774</v>
+        <v>-0.006965956402295784</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -2060,13 +2060,13 @@
         <v>39731</v>
       </c>
       <c r="B120">
-        <v>0.03888681878478775</v>
+        <v>0.002694005915565574</v>
       </c>
       <c r="C120">
-        <v>0.01219291213711183</v>
+        <v>-0.05467683264664114</v>
       </c>
       <c r="D120">
-        <v>0.0001761022731153481</v>
+        <v>-0.006229399900601197</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -2074,13 +2074,13 @@
         <v>39734</v>
       </c>
       <c r="B121">
-        <v>0.06537264489354702</v>
+        <v>-0.01471777233840489</v>
       </c>
       <c r="C121">
-        <v>0.01226956629143106</v>
+        <v>0.05813196154349719</v>
       </c>
       <c r="D121">
-        <v>0.008826710306420248</v>
+        <v>-0.01288569289733411</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -2088,13 +2088,13 @@
         <v>39735</v>
       </c>
       <c r="B122">
-        <v>-0.007579219391702932</v>
+        <v>0.02057587161461434</v>
       </c>
       <c r="C122">
-        <v>0.01226951070060752</v>
+        <v>0.02861700408203553</v>
       </c>
       <c r="D122">
-        <v>0.001657193993449383</v>
+        <v>-0.005391486997089577</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -2102,13 +2102,13 @@
         <v>39736</v>
       </c>
       <c r="B123">
-        <v>-0.0797629811373118</v>
+        <v>0.07779758384827624</v>
       </c>
       <c r="C123">
-        <v>0.01232710631901905</v>
+        <v>0.1663891165891034</v>
       </c>
       <c r="D123">
-        <v>-0.002583661669839578</v>
+        <v>-0.003975502105454967</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -2116,13 +2116,13 @@
         <v>39737</v>
       </c>
       <c r="B124">
-        <v>0.05316477229513841</v>
+        <v>-0.009986972063394189</v>
       </c>
       <c r="C124">
-        <v>0.01225283498087027</v>
+        <v>0.05866405151365198</v>
       </c>
       <c r="D124">
-        <v>-0.00299455934174036</v>
+        <v>-0.00290212561832117</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -2130,13 +2130,13 @@
         <v>39738</v>
       </c>
       <c r="B125">
-        <v>0.01430701633597501</v>
+        <v>0.01487623824018528</v>
       </c>
       <c r="C125">
-        <v>0.01227961297689298</v>
+        <v>0.1124346086620628</v>
       </c>
       <c r="D125">
-        <v>0.008724268146319977</v>
+        <v>-0.01271424074307332</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -2144,13 +2144,13 @@
         <v>39741</v>
       </c>
       <c r="B126">
-        <v>-0.03132597416596644</v>
+        <v>0.04398560689886</v>
       </c>
       <c r="C126">
-        <v>0.01226395242830167</v>
+        <v>0.09258378732156243</v>
       </c>
       <c r="D126">
-        <v>0.006415829915843368</v>
+        <v>-0.01275334412745106</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -2158,13 +2158,13 @@
         <v>39742</v>
       </c>
       <c r="B127">
-        <v>-0.07524260682211106</v>
+        <v>0.07123852988926624</v>
       </c>
       <c r="C127">
-        <v>0.01222510934351411</v>
+        <v>0.02506452640683485</v>
       </c>
       <c r="D127">
-        <v>0.005091890116327388</v>
+        <v>-0.01141402614655609</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -2172,13 +2172,13 @@
         <v>39743</v>
       </c>
       <c r="B128">
-        <v>0.03697512862769353</v>
+        <v>0.0001710479057263625</v>
       </c>
       <c r="C128">
-        <v>0.01221987479669157</v>
+        <v>0.01809885538082352</v>
       </c>
       <c r="D128">
-        <v>0.003167288193758763</v>
+        <v>-0.009446482400473008</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -2186,13 +2186,13 @@
         <v>39744</v>
       </c>
       <c r="B129">
-        <v>0.06348869541803467</v>
+        <v>0.0002905644998980293</v>
       </c>
       <c r="C129">
-        <v>0.01224973527752846</v>
+        <v>0.07942765739914756</v>
       </c>
       <c r="D129">
-        <v>0.003034226161623169</v>
+        <v>-0.008226326214707286</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -2200,13 +2200,13 @@
         <v>39745</v>
       </c>
       <c r="B130">
-        <v>-0.0008326763581526222</v>
+        <v>0.02269645756487773</v>
       </c>
       <c r="C130">
-        <v>0.0122284632140353</v>
+        <v>0.04791110589720442</v>
       </c>
       <c r="D130">
-        <v>0.009540617000621199</v>
+        <v>-0.01690017707410416</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -2214,13 +2214,13 @@
         <v>39748</v>
       </c>
       <c r="B131">
-        <v>-0.02687722401393394</v>
+        <v>0.03122522314509417</v>
       </c>
       <c r="C131">
-        <v>0.01221658882017457</v>
+        <v>-0.05009202761019049</v>
       </c>
       <c r="D131">
-        <v>0.0002098033083564568</v>
+        <v>-0.006496113679724702</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -2228,13 +2228,13 @@
         <v>39749</v>
       </c>
       <c r="B132">
-        <v>0.06454370274451329</v>
+        <v>-0.0196283601441991</v>
       </c>
       <c r="C132">
-        <v>0.01220072683658874</v>
+        <v>-0.02329364128479581</v>
       </c>
       <c r="D132">
-        <v>0.003136276884361987</v>
+        <v>-0.008589322824925564</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -2242,13 +2242,13 @@
         <v>39750</v>
       </c>
       <c r="B133">
-        <v>-0.06360728102402602</v>
+        <v>0.06107927732545739</v>
       </c>
       <c r="C133">
-        <v>0.01220841061638674</v>
+        <v>0.01515255105196902</v>
       </c>
       <c r="D133">
-        <v>0.005781808408035374</v>
+        <v>-0.01392208143843931</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -2256,13 +2256,13 @@
         <v>39751</v>
       </c>
       <c r="B134">
-        <v>-0.07041089383430849</v>
+        <v>0.06469146637954806</v>
       </c>
       <c r="C134">
-        <v>0.0121736777623036</v>
+        <v>-0.07100726302046051</v>
       </c>
       <c r="D134">
-        <v>-0.001234079470924181</v>
+        <v>-0.00299072490085089</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -2270,13 +2270,13 @@
         <v>39752</v>
       </c>
       <c r="B135">
-        <v>-0.04198375673002473</v>
+        <v>-0.03065364471244324</v>
       </c>
       <c r="C135">
-        <v>0.01221219191966821</v>
+        <v>0.01726262482633267</v>
       </c>
       <c r="D135">
-        <v>0.002928498468095126</v>
+        <v>-0.001097585294472617</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -2284,13 +2284,13 @@
         <v>39755</v>
       </c>
       <c r="B136">
-        <v>-0.02002805391217038</v>
+        <v>0.02079389504410687</v>
       </c>
       <c r="C136">
-        <v>0.0122518955378506</v>
+        <v>0.08433461160739103</v>
       </c>
       <c r="D136">
-        <v>0.002596821668923761</v>
+        <v>-0.007744754765683089</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -2298,13 +2298,13 @@
         <v>39756</v>
       </c>
       <c r="B137">
-        <v>-0.02481189107927118</v>
+        <v>0.02885986612492417</v>
       </c>
       <c r="C137">
-        <v>0.01223513819405267</v>
+        <v>0.06226128079451061</v>
       </c>
       <c r="D137">
-        <v>0.000638342897414042</v>
+        <v>-0.003276969239455773</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -2312,13 +2312,13 @@
         <v>39757</v>
       </c>
       <c r="B138">
-        <v>-0.06073459053063941</v>
+        <v>0.05915400031272591</v>
       </c>
       <c r="C138">
-        <v>0.0121825283393617</v>
+        <v>-0.04175283823004326</v>
       </c>
       <c r="D138">
-        <v>0.001269943540952531</v>
+        <v>-0.003931587521129342</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -2326,13 +2326,13 @@
         <v>39758</v>
       </c>
       <c r="B139">
-        <v>0.001774916822199797</v>
+        <v>0.01145147852273525</v>
       </c>
       <c r="C139">
-        <v>0.01219945618454934</v>
+        <v>-0.005474900558627531</v>
       </c>
       <c r="D139">
-        <v>0.002027393562911522</v>
+        <v>-0.00592011304806518</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -2340,13 +2340,13 @@
         <v>39759</v>
       </c>
       <c r="B140">
-        <v>0.02527309746963115</v>
+        <v>0.02814833738914211</v>
       </c>
       <c r="C140">
-        <v>0.01220255887146843</v>
+        <v>0.03706241168514957</v>
       </c>
       <c r="D140">
-        <v>0.002495084209242208</v>
+        <v>-0.005745752059963478</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -2354,13 +2354,13 @@
         <v>39762</v>
       </c>
       <c r="B141">
-        <v>-0.02762596790657098</v>
+        <v>0.02996300587214871</v>
       </c>
       <c r="C141">
-        <v>0.01220487572598514</v>
+        <v>-0.003158031195013709</v>
       </c>
       <c r="D141">
-        <v>0.002425666212606409</v>
+        <v>-0.007398469725888297</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -2368,13 +2368,13 @@
         <v>39763</v>
       </c>
       <c r="B142">
-        <v>-0.02429819949627192</v>
+        <v>0.02938537565326828</v>
       </c>
       <c r="C142">
-        <v>0.01218355103144222</v>
+        <v>-0.0800283783632844</v>
       </c>
       <c r="D142">
-        <v>0.004232828957199408</v>
+        <v>-0.01472330476439708</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -2382,13 +2382,13 @@
         <v>39764</v>
       </c>
       <c r="B143">
-        <v>0.02311801969513103</v>
+        <v>0.002714233388551264</v>
       </c>
       <c r="C143">
-        <v>0.01218568681943446</v>
+        <v>0.006274332353255085</v>
       </c>
       <c r="D143">
-        <v>0.002481526219145099</v>
+        <v>-0.01092004546570513</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -2396,13 +2396,13 @@
         <v>39765</v>
       </c>
       <c r="B144">
-        <v>0.04124176734495565</v>
+        <v>-0.01064399962588531</v>
       </c>
       <c r="C144">
-        <v>0.01217271636736391</v>
+        <v>-0.02970686166248331</v>
       </c>
       <c r="D144">
-        <v>0.003793968655162814</v>
+        <v>-0.01532028664739627</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -2410,13 +2410,13 @@
         <v>39766</v>
       </c>
       <c r="B145">
-        <v>-0.06237693848784885</v>
+        <v>0.06192612528837104</v>
       </c>
       <c r="C145">
-        <v>0.0121817818992293</v>
+        <v>0.0213190228425463</v>
       </c>
       <c r="D145">
-        <v>0.001272897572307967</v>
+        <v>-0.004464845164873161</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -2424,13 +2424,13 @@
         <v>39769</v>
       </c>
       <c r="B146">
-        <v>0.0163537205982286</v>
+        <v>0.005484007612346874</v>
       </c>
       <c r="C146">
-        <v>0.01217658080750547</v>
+        <v>0.004834858160539128</v>
       </c>
       <c r="D146">
-        <v>0.002743600233128279</v>
+        <v>-0.008688154645973351</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -2438,13 +2438,13 @@
         <v>39770</v>
       </c>
       <c r="B147">
-        <v>0.009585960219111067</v>
+        <v>0.01459039669763863</v>
       </c>
       <c r="C147">
-        <v>0.01217276640491687</v>
+        <v>-0.0005954494512671205</v>
       </c>
       <c r="D147">
-        <v>0.002020290145166657</v>
+        <v>-0.005855262571716406</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -2452,13 +2452,13 @@
         <v>39771</v>
       </c>
       <c r="B148">
-        <v>-0.01352285998373003</v>
+        <v>0.02120251769467058</v>
       </c>
       <c r="C148">
-        <v>0.01217866907607382</v>
+        <v>-0.001401885253458472</v>
       </c>
       <c r="D148">
-        <v>0.003333988729181381</v>
+        <v>-0.01347864684845724</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -2466,13 +2466,13 @@
         <v>39772</v>
       </c>
       <c r="B149">
-        <v>0.0248306214983463</v>
+        <v>-0.0004506208189670978</v>
       </c>
       <c r="C149">
-        <v>0.01216442035012623</v>
+        <v>-0.03235681140064668</v>
       </c>
       <c r="D149">
-        <v>0.002045438805527607</v>
+        <v>-0.007989457795575141</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -2480,13 +2480,13 @@
         <v>39773</v>
       </c>
       <c r="B150">
-        <v>0.04209432456707166</v>
+        <v>-0.01430280198887018</v>
       </c>
       <c r="C150">
-        <v>0.01214464768387649</v>
+        <v>-0.1344197925481952</v>
       </c>
       <c r="D150">
-        <v>0.001784248297139638</v>
+        <v>-0.003208978048989381</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -2494,13 +2494,13 @@
         <v>39776</v>
       </c>
       <c r="B151">
-        <v>-0.06945288511471537</v>
+        <v>0.0646165042191974</v>
       </c>
       <c r="C151">
-        <v>0.01214469754310716</v>
+        <v>-0.1304213540647909</v>
       </c>
       <c r="D151">
-        <v>0.002286003046290667</v>
+        <v>-0.006404248870492087</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -2508,13 +2508,13 @@
         <v>39777</v>
       </c>
       <c r="B152">
-        <v>-0.04078413732321344</v>
+        <v>0.043962808941228</v>
       </c>
       <c r="C152">
-        <v>0.0121683756180332</v>
+        <v>0.02920713628629456</v>
       </c>
       <c r="D152">
-        <v>0.003055743981648152</v>
+        <v>-0.01445369691941949</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -2522,13 +2522,13 @@
         <v>39778</v>
       </c>
       <c r="B153">
-        <v>-0.01836041082247779</v>
+        <v>0.02203191512957413</v>
       </c>
       <c r="C153">
-        <v>0.01217035205486188</v>
+        <v>0.02031152061800823</v>
       </c>
       <c r="D153">
-        <v>0.002357335166501467</v>
+        <v>-0.009181863913539728</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -2536,13 +2536,13 @@
         <v>39779</v>
       </c>
       <c r="B154">
-        <v>-0.06196771774428522</v>
+        <v>0.05863254205450541</v>
       </c>
       <c r="C154">
-        <v>0.01216301201613442</v>
+        <v>0.02095818523746252</v>
       </c>
       <c r="D154">
-        <v>0.002076953172152707</v>
+        <v>-0.005874085313873525</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -2550,13 +2550,13 @@
         <v>39780</v>
       </c>
       <c r="B155">
-        <v>-0.03686411032903956</v>
+        <v>0.03698100504600504</v>
       </c>
       <c r="C155">
-        <v>0.01215946833693007</v>
+        <v>0.01395310312912684</v>
       </c>
       <c r="D155">
-        <v>0.002196841352064991</v>
+        <v>-0.005697126168453242</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -2564,13 +2564,13 @@
         <v>39783</v>
       </c>
       <c r="B156">
-        <v>-0.0490535555454398</v>
+        <v>0.003984849367152226</v>
       </c>
       <c r="C156">
-        <v>0.01217223577802322</v>
+        <v>0.08106575277987424</v>
       </c>
       <c r="D156">
-        <v>0.002314088937717521</v>
+        <v>-0.004374607657620331</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -2578,13 +2578,13 @@
         <v>39784</v>
       </c>
       <c r="B157">
-        <v>0.0495277481392592</v>
+        <v>-0.02582299111133947</v>
       </c>
       <c r="C157">
-        <v>0.01215991843036913</v>
+        <v>0.04374199734770386</v>
       </c>
       <c r="D157">
-        <v>0.001839991217523156</v>
+        <v>-0.003023268068844627</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -2592,13 +2592,13 @@
         <v>39785</v>
       </c>
       <c r="B158">
-        <v>-0.02221915414679828</v>
+        <v>0.02762566153167476</v>
       </c>
       <c r="C158">
-        <v>0.01214786761882462</v>
+        <v>-0.04740471151475982</v>
       </c>
       <c r="D158">
-        <v>0.002437156187926136</v>
+        <v>-0.007822357884824634</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -2606,13 +2606,13 @@
         <v>39786</v>
       </c>
       <c r="B159">
-        <v>-0.0112073542478426</v>
+        <v>0.02021341412564154</v>
       </c>
       <c r="C159">
-        <v>0.01215674601201134</v>
+        <v>0.04614508593514367</v>
       </c>
       <c r="D159">
-        <v>0.002410664942402609</v>
+        <v>-0.00960666367977692</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -2620,13 +2620,13 @@
         <v>39787</v>
       </c>
       <c r="B160">
-        <v>0.004887325104835218</v>
+        <v>0.01431601996069941</v>
       </c>
       <c r="C160">
-        <v>0.01215006054889883</v>
+        <v>0.00938368268260795</v>
       </c>
       <c r="D160">
-        <v>0.002360121407652736</v>
+        <v>-0.008635911043655079</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -2634,13 +2634,13 @@
         <v>39790</v>
       </c>
       <c r="B161">
-        <v>-0.01804931793674135</v>
+        <v>0.02519109475909518</v>
       </c>
       <c r="C161">
-        <v>0.0121534001749979</v>
+        <v>0.06711477622273321</v>
       </c>
       <c r="D161">
-        <v>0.002128243906034822</v>
+        <v>-0.006230822524034495</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -2648,13 +2648,13 @@
         <v>39791</v>
       </c>
       <c r="B162">
-        <v>-0.05722663688811697</v>
+        <v>0.05577952921857166</v>
       </c>
       <c r="C162">
-        <v>0.01214999738998312</v>
+        <v>0.04442331897454227</v>
       </c>
       <c r="D162">
-        <v>0.002579003958216583</v>
+        <v>-0.0114209907035705</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -2662,13 +2662,13 @@
         <v>39792</v>
       </c>
       <c r="B163">
-        <v>-0.01253257157204193</v>
+        <v>0.02171778615445118</v>
       </c>
       <c r="C163">
-        <v>0.01213737149200142</v>
+        <v>-0.05195893923278216</v>
       </c>
       <c r="D163">
-        <v>0.002078794299187322</v>
+        <v>-0.006625164055264659</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -2676,13 +2676,13 @@
         <v>39793</v>
       </c>
       <c r="B164">
-        <v>-0.05389447582636689</v>
+        <v>0.0401598179784876</v>
       </c>
       <c r="C164">
-        <v>0.01213377252333001</v>
+        <v>-0.09074315989115582</v>
       </c>
       <c r="D164">
-        <v>0.002446142005199328</v>
+        <v>-0.008921390017135711</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -2690,13 +2690,13 @@
         <v>39794</v>
       </c>
       <c r="B165">
-        <v>-0.01147417695430076</v>
+        <v>0.02104804607490127</v>
       </c>
       <c r="C165">
-        <v>0.0121392423172099</v>
+        <v>0.005636443192314844</v>
       </c>
       <c r="D165">
-        <v>0.0007554759907776837</v>
+        <v>0.01544497661792106</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -2704,13 +2704,13 @@
         <v>39797</v>
       </c>
       <c r="B166">
-        <v>-0.03048708049726963</v>
+        <v>0.03577044401443626</v>
       </c>
       <c r="C166">
-        <v>0.0121372267634117</v>
+        <v>0.006465063008131697</v>
       </c>
       <c r="D166">
-        <v>0.00255780433923632</v>
+        <v>-0.004495253953483189</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -2718,13 +2718,13 @@
         <v>39798</v>
       </c>
       <c r="B167">
-        <v>-0.01479238288477793</v>
+        <v>0.02445540319106431</v>
       </c>
       <c r="C167">
-        <v>0.01212897925013948</v>
+        <v>-0.06271678671453595</v>
       </c>
       <c r="D167">
-        <v>0.002333911728687767</v>
+        <v>-0.01081496094751043</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -2732,13 +2732,13 @@
         <v>39799</v>
       </c>
       <c r="B168">
-        <v>-0.04420332290254711</v>
+        <v>0.04577203486979276</v>
       </c>
       <c r="C168">
-        <v>0.01213494002250384</v>
+        <v>-0.02305879052533328</v>
       </c>
       <c r="D168">
-        <v>0.002432375633217753</v>
+        <v>-0.01134851301780624</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -2746,13 +2746,13 @@
         <v>39800</v>
       </c>
       <c r="B169">
-        <v>-0.01711711607665034</v>
+        <v>0.02606977588880685</v>
       </c>
       <c r="C169">
-        <v>0.01212965791495785</v>
+        <v>-0.02000831268439435</v>
       </c>
       <c r="D169">
-        <v>0.002134489646688088</v>
+        <v>-0.006316941830987024</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -2760,13 +2760,13 @@
         <v>39801</v>
       </c>
       <c r="B170">
-        <v>0.008265206517793604</v>
+        <v>1.965024986054498e-05</v>
       </c>
       <c r="C170">
-        <v>0.01213663239131709</v>
+        <v>0.04080554692144789</v>
       </c>
       <c r="D170">
-        <v>0.002488755889258879</v>
+        <v>-0.01140729450305408</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -2774,13 +2774,13 @@
         <v>39804</v>
       </c>
       <c r="B171">
-        <v>-0.02263117696240616</v>
+        <v>0.03184460247288271</v>
       </c>
       <c r="C171">
-        <v>0.01212800535248846</v>
+        <v>0.004280278450125402</v>
       </c>
       <c r="D171">
-        <v>0.002418877171335161</v>
+        <v>-0.01311820267231715</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -2788,13 +2788,13 @@
         <v>39805</v>
       </c>
       <c r="B172">
-        <v>-0.002020457147821179</v>
+        <v>0.0115458396767385</v>
       </c>
       <c r="C172">
-        <v>0.01213462500644509</v>
+        <v>0.08227988439028219</v>
       </c>
       <c r="D172">
-        <v>0.00154856391536566</v>
+        <v>0.005955565488493002</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -2802,13 +2802,13 @@
         <v>39806</v>
       </c>
       <c r="B173">
-        <v>-0.01954133329630642</v>
+        <v>0.02899065754369918</v>
       </c>
       <c r="C173">
-        <v>0.01212430498292201</v>
+        <v>-0.001446269499005195</v>
       </c>
       <c r="D173">
-        <v>0.002465155506322479</v>
+        <v>-0.007423795886824485</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -2816,13 +2816,13 @@
         <v>39808</v>
       </c>
       <c r="B174">
-        <v>-0.01274780197991433</v>
+        <v>0.02358420853595517</v>
       </c>
       <c r="C174">
-        <v>0.01212425443773959</v>
+        <v>0.02848890870217149</v>
       </c>
       <c r="D174">
-        <v>0.002145289287449162</v>
+        <v>-0.005989587206797597</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -2830,13 +2830,13 @@
         <v>39811</v>
       </c>
       <c r="B175">
-        <v>-0.01243114994919498</v>
+        <v>0.01696226536477317</v>
       </c>
       <c r="C175">
-        <v>0.01212242829565817</v>
+        <v>0.01664543427708875</v>
       </c>
       <c r="D175">
-        <v>0.0022768902607502</v>
+        <v>-0.003477460379641475</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -2844,13 +2844,13 @@
         <v>39812</v>
       </c>
       <c r="B176">
-        <v>-0.05026213782560894</v>
+        <v>0.0523985382795239</v>
       </c>
       <c r="C176">
-        <v>0.01212526680738871</v>
+        <v>-0.02390771656283262</v>
       </c>
       <c r="D176">
-        <v>0.002157680842630165</v>
+        <v>-0.005863262916239994</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -2858,13 +2858,13 @@
         <v>39813</v>
       </c>
       <c r="B177">
-        <v>-0.02869360840021664</v>
+        <v>0.03191190128520299</v>
       </c>
       <c r="C177">
-        <v>0.01212759997220396</v>
+        <v>0.07188808838158718</v>
       </c>
       <c r="D177">
-        <v>0.00240783461197856</v>
+        <v>-0.01066591391961393</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -2872,13 +2872,13 @@
         <v>39815</v>
       </c>
       <c r="B178">
-        <v>-0.02608280377624962</v>
+        <v>0.001298382841889613</v>
       </c>
       <c r="C178">
-        <v>0.0121225021109232</v>
+        <v>0.02307648326666286</v>
       </c>
       <c r="D178">
-        <v>0.002271196994654022</v>
+        <v>-0.006327317167100263</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -2886,13 +2886,13 @@
         <v>39818</v>
       </c>
       <c r="B179">
-        <v>-0.04389743254298795</v>
+        <v>-0.006482450842936822</v>
       </c>
       <c r="C179">
-        <v>0.01212815925964598</v>
+        <v>0.04795728516270426</v>
       </c>
       <c r="D179">
-        <v>0.002268752377136493</v>
+        <v>-0.004372925727557342</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -2900,13 +2900,13 @@
         <v>39819</v>
       </c>
       <c r="B180">
-        <v>-0.01684195232378828</v>
+        <v>0.006719241716432206</v>
       </c>
       <c r="C180">
-        <v>0.01212230533322833</v>
+        <v>0.03343821068678718</v>
       </c>
       <c r="D180">
-        <v>0.002301970260183742</v>
+        <v>-0.005041960781211694</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -2914,13 +2914,13 @@
         <v>39820</v>
       </c>
       <c r="B181">
-        <v>-0.03295363871268316</v>
+        <v>0.03962408006134236</v>
       </c>
       <c r="C181">
-        <v>0.01212260569237112</v>
+        <v>0.05056469955406971</v>
       </c>
       <c r="D181">
-        <v>0.002369795375306479</v>
+        <v>-0.01073712849828828</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -2928,13 +2928,13 @@
         <v>39821</v>
       </c>
       <c r="B182">
-        <v>0.005725895958540103</v>
+        <v>0.001170118005937588</v>
       </c>
       <c r="C182">
-        <v>0.01212334589885643</v>
+        <v>0.03284612823107153</v>
       </c>
       <c r="D182">
-        <v>0.002215803719360608</v>
+        <v>-0.007975046497848068</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -2942,13 +2942,13 @@
         <v>39822</v>
       </c>
       <c r="B183">
-        <v>-0.02083150949633308</v>
+        <v>0.0342305234773553</v>
       </c>
       <c r="C183">
-        <v>0.01211548605175304</v>
+        <v>0.0008094874663616674</v>
       </c>
       <c r="D183">
-        <v>0.002112351409130765</v>
+        <v>-0.003723769680087334</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -2956,13 +2956,13 @@
         <v>39825</v>
       </c>
       <c r="B184">
-        <v>-0.00415772460716858</v>
+        <v>0.02252614185557941</v>
       </c>
       <c r="C184">
-        <v>0.01211594057882001</v>
+        <v>0.06632009263378402</v>
       </c>
       <c r="D184">
-        <v>0.001927893298213069</v>
+        <v>0.004295500856486056</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -2970,13 +2970,13 @@
         <v>39826</v>
       </c>
       <c r="B185">
-        <v>0.002475360974423378</v>
+        <v>0.00475484821058789</v>
       </c>
       <c r="C185">
-        <v>0.01212132997094722</v>
+        <v>0.04801519187280298</v>
       </c>
       <c r="D185">
-        <v>0.002324710644020368</v>
+        <v>-0.006305451133966224</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -2984,13 +2984,13 @@
         <v>39827</v>
       </c>
       <c r="B186">
-        <v>-0.02411783449444023</v>
+        <v>0.03719654558803325</v>
       </c>
       <c r="C186">
-        <v>0.01211485187414933</v>
+        <v>-0.005209872403233815</v>
       </c>
       <c r="D186">
-        <v>0.002384039022382025</v>
+        <v>-0.01339792193613585</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -2998,13 +2998,13 @@
         <v>39828</v>
       </c>
       <c r="B187">
-        <v>0.004128401285289626</v>
+        <v>0.00317703233267707</v>
       </c>
       <c r="C187">
-        <v>0.01211633002033168</v>
+        <v>-0.09055508872063309</v>
       </c>
       <c r="D187">
-        <v>0.002586912176311276</v>
+        <v>-0.02036006074992632</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -3012,13 +3012,13 @@
         <v>39829</v>
       </c>
       <c r="B188">
-        <v>-0.02360160676097306</v>
+        <v>0.03720561880926632</v>
       </c>
       <c r="C188">
-        <v>0.01211445323841922</v>
+        <v>-0.007562733823029962</v>
       </c>
       <c r="D188">
-        <v>0.002232359466484044</v>
+        <v>-0.01147220519224433</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -3026,13 +3026,13 @@
         <v>39832</v>
       </c>
       <c r="B189">
-        <v>-0.01407145003593075</v>
+        <v>0.006905543146363453</v>
       </c>
       <c r="C189">
-        <v>0.01211119921077886</v>
+        <v>-0.01158102564047806</v>
       </c>
       <c r="D189">
-        <v>0.002300321188815776</v>
+        <v>-0.006585578297472692</v>
       </c>
     </row>
   </sheetData>
